--- a/Memo/RGB_Matrix_LED_position.xlsx
+++ b/Memo/RGB_Matrix_LED_position.xlsx
@@ -8,18 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenn/Git/jpskenn/Nora/Memo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{116233F2-FADB-984F-A644-7A06A0851491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7048CB3-719F-7042-A82D-A184BD50CC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2060" windowWidth="28300" windowHeight="17440" xr2:uid="{5E3D67D0-7684-C541-9899-03D582334558}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DN0031" sheetId="2" r:id="rId1"/>
+    <sheet name="DN0030" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="NUMBER_OF_COLS">Sheet1!$C$1</definedName>
-    <definedName name="NUMBER_OF_ROWS">Sheet1!$C$2</definedName>
+    <definedName name="NUMBER_OF_COLS" localSheetId="0">'DN0031'!$C$1</definedName>
+    <definedName name="NUMBER_OF_COLS">'DN0030'!$C$1</definedName>
+    <definedName name="NUMBER_OF_ROWS" localSheetId="0">'DN0031'!$C$2</definedName>
+    <definedName name="NUMBER_OF_ROWS">'DN0030'!$C$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>NUMBER_OF_COLS</t>
     <phoneticPr fontId="1"/>
@@ -415,11 +418,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BA2189-7D89-4C42-B56D-B78EAC88B188}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D35B2DF-E534-234B-9769-8250ED960CE9}">
   <dimension ref="B1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="D16" sqref="D16:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -495,67 +498,67 @@
         <v>1</v>
       </c>
       <c r="D4" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*D$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C4,0)&amp;"}"</f>
+        <f t="shared" ref="D4:S8" si="0">"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*D$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C4,0)&amp;"}"</f>
         <v>{15,16}</v>
       </c>
       <c r="E4" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*E$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C4,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{30,16}</v>
       </c>
       <c r="F4" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*F$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C4,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{45,16}</v>
       </c>
       <c r="G4" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*G$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C4,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{60,16}</v>
       </c>
       <c r="H4" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*H$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C4,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{75,16}</v>
       </c>
       <c r="I4" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*I$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C4,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{90,16}</v>
       </c>
       <c r="J4" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*J$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C4,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{105,16}</v>
       </c>
       <c r="K4" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*K$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C4,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{119,16}</v>
       </c>
       <c r="L4" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*L$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C4,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{134,16}</v>
       </c>
       <c r="M4" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*M$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C4,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{149,16}</v>
       </c>
       <c r="N4" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*N$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C4,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{164,16}</v>
       </c>
       <c r="O4" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*O$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C4,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{179,16}</v>
       </c>
       <c r="P4" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*P$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C4,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{194,16}</v>
       </c>
       <c r="Q4" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*Q$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C4,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{209,16}</v>
       </c>
       <c r="R4" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*R$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C4,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{224,16}</v>
       </c>
       <c r="S4" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*S$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C4,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{239,16}</v>
       </c>
     </row>
@@ -564,67 +567,67 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*D$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C5,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{15,32}</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*E$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C5,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{30,32}</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*F$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C5,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{45,32}</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*G$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C5,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{60,32}</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*H$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C5,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{75,32}</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*I$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C5,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{90,32}</v>
       </c>
       <c r="J5" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*J$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C5,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{105,32}</v>
       </c>
       <c r="K5" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*K$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C5,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{119,32}</v>
       </c>
       <c r="L5" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*L$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C5,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{134,32}</v>
       </c>
       <c r="M5" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*M$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C5,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{149,32}</v>
       </c>
       <c r="N5" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*N$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C5,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{164,32}</v>
       </c>
       <c r="O5" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*O$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C5,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{179,32}</v>
       </c>
       <c r="P5" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*P$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C5,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{194,32}</v>
       </c>
       <c r="Q5" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*Q$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C5,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{209,32}</v>
       </c>
       <c r="R5" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*R$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C5,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{224,32}</v>
       </c>
       <c r="S5" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*S$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C5,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{239,32}</v>
       </c>
     </row>
@@ -633,67 +636,67 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*D$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C6,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{15,48}</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*E$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C6,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{30,48}</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*F$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C6,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{45,48}</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*G$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C6,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{60,48}</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*H$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C6,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{75,48}</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*I$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C6,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{90,48}</v>
       </c>
       <c r="J6" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*J$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C6,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{105,48}</v>
       </c>
       <c r="K6" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*K$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C6,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{119,48}</v>
       </c>
       <c r="L6" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*L$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C6,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{134,48}</v>
       </c>
       <c r="M6" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*M$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C6,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{149,48}</v>
       </c>
       <c r="N6" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*N$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C6,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{164,48}</v>
       </c>
       <c r="O6" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*O$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C6,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{179,48}</v>
       </c>
       <c r="P6" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*P$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C6,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{194,48}</v>
       </c>
       <c r="Q6" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*Q$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C6,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{209,48}</v>
       </c>
       <c r="R6" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*R$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C6,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{224,48}</v>
       </c>
       <c r="S6" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*S$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C6,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{239,48}</v>
       </c>
     </row>
@@ -702,67 +705,67 @@
         <v>4</v>
       </c>
       <c r="D7" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*D$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C7,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{15,64}</v>
       </c>
       <c r="E7" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*E$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C7,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{30,64}</v>
       </c>
       <c r="F7" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*F$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C7,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{45,64}</v>
       </c>
       <c r="G7" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*G$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C7,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{60,64}</v>
       </c>
       <c r="H7" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*H$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C7,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{75,64}</v>
       </c>
       <c r="I7" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*I$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C7,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{90,64}</v>
       </c>
       <c r="J7" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*J$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C7,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{105,64}</v>
       </c>
       <c r="K7" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*K$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C7,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{119,64}</v>
       </c>
       <c r="L7" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*L$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C7,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{134,64}</v>
       </c>
       <c r="M7" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*M$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C7,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{149,64}</v>
       </c>
       <c r="N7" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*N$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C7,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{164,64}</v>
       </c>
       <c r="O7" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*O$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C7,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{179,64}</v>
       </c>
       <c r="P7" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*P$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C7,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{194,64}</v>
       </c>
       <c r="Q7" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*Q$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C7,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{209,64}</v>
       </c>
       <c r="R7" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*R$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C7,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{224,64}</v>
       </c>
       <c r="S7" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*S$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C7,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{239,64}</v>
       </c>
     </row>
@@ -771,67 +774,67 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*D$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C8,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{15,80}</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*E$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C8,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{30,80}</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*F$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C8,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{45,80}</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*G$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C8,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{60,80}</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*H$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C8,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{75,80}</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*I$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C8,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{90,80}</v>
       </c>
       <c r="J8" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*J$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C8,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{105,80}</v>
       </c>
       <c r="K8" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*K$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C8,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{119,80}</v>
       </c>
       <c r="L8" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*L$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C8,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{134,80}</v>
       </c>
       <c r="M8" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*M$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C8,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{149,80}</v>
       </c>
       <c r="N8" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*N$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C8,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{164,80}</v>
       </c>
       <c r="O8" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*O$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C8,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{179,80}</v>
       </c>
       <c r="P8" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*P$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C8,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{194,80}</v>
       </c>
       <c r="Q8" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*Q$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C8,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{209,80}</v>
       </c>
       <c r="R8" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*R$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C8,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{224,80}</v>
       </c>
       <c r="S8" s="1" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*S$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C8,0)&amp;"}"</f>
+        <f t="shared" si="0"/>
         <v>{239,80}</v>
       </c>
     </row>
@@ -887,63 +890,63 @@
         <v>2</v>
       </c>
       <c r="D11" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*D$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C11,0)&amp;"}"</f>
+        <f t="shared" ref="D11:R12" si="1">"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*D$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C11,0)&amp;"}"</f>
         <v>{19,32}</v>
       </c>
       <c r="E11" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*E$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C11,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{37,32}</v>
       </c>
       <c r="F11" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*F$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C11,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{52,32}</v>
       </c>
       <c r="G11" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*G$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C11,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{67,32}</v>
       </c>
       <c r="H11" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*H$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C11,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{82,32}</v>
       </c>
       <c r="I11" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*I$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C11,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{97,32}</v>
       </c>
       <c r="J11" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*J$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C11,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{112,32}</v>
       </c>
       <c r="K11" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*K$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C11,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{127,32}</v>
       </c>
       <c r="L11" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*L$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C11,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{142,32}</v>
       </c>
       <c r="M11" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*M$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C11,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{157,32}</v>
       </c>
       <c r="N11" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*N$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C11,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{172,32}</v>
       </c>
       <c r="O11" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*O$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C11,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{187,32}</v>
       </c>
       <c r="P11" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*P$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C11,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{202,32}</v>
       </c>
       <c r="Q11" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*Q$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C11,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{217,32}</v>
       </c>
       <c r="R11" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*R$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C11,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{228,32}</v>
       </c>
     </row>
@@ -952,63 +955,737 @@
         <v>3</v>
       </c>
       <c r="D12" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*D$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C12,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{19,48}</v>
       </c>
       <c r="E12" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*E$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C12,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{37,48}</v>
       </c>
       <c r="F12" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*F$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C12,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{52,48}</v>
       </c>
       <c r="G12" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*G$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C12,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{67,48}</v>
       </c>
       <c r="H12" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*H$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C12,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{82,48}</v>
       </c>
       <c r="I12" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*I$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C12,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{97,48}</v>
       </c>
       <c r="J12" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*J$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C12,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{112,48}</v>
       </c>
       <c r="K12" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*K$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C12,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{127,48}</v>
       </c>
       <c r="L12" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*L$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C12,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{142,48}</v>
       </c>
       <c r="M12" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*M$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C12,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{157,48}</v>
       </c>
       <c r="N12" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*N$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C12,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{172,48}</v>
       </c>
       <c r="O12" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*O$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C12,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{187,48}</v>
       </c>
       <c r="P12" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*P$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C12,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{202,48}</v>
       </c>
       <c r="Q12" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*Q$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C12,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{217,48}</v>
       </c>
       <c r="R12" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*R$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C12,0)&amp;"}"</f>
+        <f t="shared" si="1"/>
+        <v>{228,48}</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="D15">
+        <v>3.5</v>
+      </c>
+      <c r="E15">
+        <v>4.75</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>7.25</v>
+      </c>
+      <c r="H15">
+        <v>8.5</v>
+      </c>
+      <c r="I15">
+        <v>9.75</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>12.25</v>
+      </c>
+      <c r="L15">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" ref="D16:L16" si="2">"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*D$15,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C16,0)&amp;"}"</f>
+        <v>{52,80}</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>{71,80}</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="2"/>
+        <v>{90,80}</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>{108,80}</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>{127,80}</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v>{146,80}</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="2"/>
+        <v>{164,80}</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="2"/>
+        <v>{183,80}</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="2"/>
+        <v>{202,80}</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BA2189-7D89-4C42-B56D-B78EAC88B188}">
+  <dimension ref="B1:S16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="2:19">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>9</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>11</v>
+      </c>
+      <c r="O3">
+        <v>12</v>
+      </c>
+      <c r="P3">
+        <v>13</v>
+      </c>
+      <c r="Q3">
+        <v>14</v>
+      </c>
+      <c r="R3">
+        <v>15</v>
+      </c>
+      <c r="S3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:S8" si="0">"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*D$3,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C4,0)&amp;"}"</f>
+        <v>{15,16}</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>{30,16}</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>{45,16}</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>{60,16}</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>{75,16}</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>{90,16}</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>{105,16}</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>{119,16}</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>{134,16}</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>{149,16}</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>{164,16}</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="0"/>
+        <v>{179,16}</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>{194,16}</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="0"/>
+        <v>{209,16}</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="0"/>
+        <v>{224,16}</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="0"/>
+        <v>{239,16}</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{15,32}</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{30,32}</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{45,32}</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{60,32}</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{75,32}</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{90,32}</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{105,32}</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{119,32}</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{134,32}</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{149,32}</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{164,32}</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{179,32}</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{194,32}</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{209,32}</v>
+      </c>
+      <c r="R5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{224,32}</v>
+      </c>
+      <c r="S5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{239,32}</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{15,48}</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{30,48}</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{45,48}</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{60,48}</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{75,48}</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{90,48}</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{105,48}</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{119,48}</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{134,48}</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{149,48}</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{164,48}</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{179,48}</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{194,48}</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{209,48}</v>
+      </c>
+      <c r="R6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{224,48}</v>
+      </c>
+      <c r="S6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{239,48}</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>{15,64}</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>{30,64}</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>{45,64}</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>{60,64}</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>{75,64}</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>{90,64}</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>{105,64}</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>{119,64}</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>{134,64}</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>{149,64}</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>{164,64}</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="0"/>
+        <v>{179,64}</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="0"/>
+        <v>{194,64}</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="0"/>
+        <v>{209,64}</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="0"/>
+        <v>{224,64}</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="0"/>
+        <v>{239,64}</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{15,80}</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{30,80}</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{45,80}</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{60,80}</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{75,80}</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{90,80}</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{105,80}</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{119,80}</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{134,80}</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{149,80}</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{164,80}</v>
+      </c>
+      <c r="O8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{179,80}</v>
+      </c>
+      <c r="P8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{194,80}</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{209,80}</v>
+      </c>
+      <c r="R8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{224,80}</v>
+      </c>
+      <c r="S8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{239,80}</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="D10">
+        <v>1.25</v>
+      </c>
+      <c r="E10">
+        <v>2.5</v>
+      </c>
+      <c r="F10">
+        <v>3.5</v>
+      </c>
+      <c r="G10">
+        <v>4.5</v>
+      </c>
+      <c r="H10">
+        <v>5.5</v>
+      </c>
+      <c r="I10">
+        <v>6.5</v>
+      </c>
+      <c r="J10">
+        <v>7.5</v>
+      </c>
+      <c r="K10">
+        <v>8.5</v>
+      </c>
+      <c r="L10">
+        <v>9.5</v>
+      </c>
+      <c r="M10">
+        <v>10.5</v>
+      </c>
+      <c r="N10">
+        <v>11.5</v>
+      </c>
+      <c r="O10">
+        <v>12.5</v>
+      </c>
+      <c r="P10">
+        <v>13.5</v>
+      </c>
+      <c r="Q10">
+        <v>14.5</v>
+      </c>
+      <c r="R10">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:R12" si="1">"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*D$10,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C11,0)&amp;"}"</f>
+        <v>{19,32}</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>{37,32}</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>{52,32}</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>{67,32}</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>{82,32}</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>{97,32}</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>{112,32}</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>{127,32}</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>{142,32}</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>{157,32}</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="1"/>
+        <v>{172,32}</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="1"/>
+        <v>{187,32}</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="1"/>
+        <v>{202,32}</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="1"/>
+        <v>{217,32}</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="1"/>
+        <v>{228,32}</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>{19,48}</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>{37,48}</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>{52,48}</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>{67,48}</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>{82,48}</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>{97,48}</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>{112,48}</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>{127,48}</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>{142,48}</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>{157,48}</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="1"/>
+        <v>{172,48}</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="1"/>
+        <v>{187,48}</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="1"/>
+        <v>{202,48}</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="1"/>
+        <v>{217,48}</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="1"/>
         <v>{228,48}</v>
       </c>
     </row>
@@ -1046,39 +1723,39 @@
         <v>5</v>
       </c>
       <c r="D16" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*D$15,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C16,0)&amp;"}"</f>
+        <f t="shared" ref="D16:L16" si="2">"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*D$15,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C16,0)&amp;"}"</f>
         <v>{56,80}</v>
       </c>
       <c r="E16" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*E$15,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C16,0)&amp;"}"</f>
+        <f t="shared" si="2"/>
         <v>{75,80}</v>
       </c>
       <c r="F16" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*F$15,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C16,0)&amp;"}"</f>
+        <f t="shared" si="2"/>
         <v>{93,80}</v>
       </c>
       <c r="G16" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*G$15,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C16,0)&amp;"}"</f>
+        <f t="shared" si="2"/>
         <v>{112,80}</v>
       </c>
       <c r="H16" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*H$15,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C16,0)&amp;"}"</f>
+        <f t="shared" si="2"/>
         <v>{127,80}</v>
       </c>
       <c r="I16" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*I$15,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C16,0)&amp;"}"</f>
+        <f t="shared" si="2"/>
         <v>{142,80}</v>
       </c>
       <c r="J16" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*J$15,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C16,0)&amp;"}"</f>
+        <f t="shared" si="2"/>
         <v>{161,80}</v>
       </c>
       <c r="K16" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*K$15,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C16,0)&amp;"}"</f>
+        <f t="shared" si="2"/>
         <v>{179,80}</v>
       </c>
       <c r="L16" t="str">
-        <f>"{"&amp;ROUND(224/(NUMBER_OF_COLS-1)*L$15,0)&amp;","&amp;ROUND(64/(NUMBER_OF_ROWS-1)*$C16,0)&amp;"}"</f>
+        <f t="shared" si="2"/>
         <v>{198,80}</v>
       </c>
     </row>

--- a/Memo/RGB_Matrix_LED_position.xlsx
+++ b/Memo/RGB_Matrix_LED_position.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenn/Git/jpskenn/Nora/Memo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7048CB3-719F-7042-A82D-A184BD50CC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D177D69-F69D-964C-A3BF-03449D09ACA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2060" windowWidth="28300" windowHeight="17440" xr2:uid="{5E3D67D0-7684-C541-9899-03D582334558}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25100" windowHeight="28300" xr2:uid="{5E3D67D0-7684-C541-9899-03D582334558}"/>
   </bookViews>
   <sheets>
     <sheet name="DN0031" sheetId="2" r:id="rId1"/>
@@ -39,13 +39,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="7">
   <si>
     <t>NUMBER_OF_COLS</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>NUMBER_OF_ROWS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED Order &amp; Index</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FULL: 71 LEDs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fearless Wings: 64 LEDs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FW + RE: 64 LEDs</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -70,7 +90,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,6 +100,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -98,11 +148,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -419,13 +484,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D35B2DF-E534-234B-9769-8250ED960CE9}">
-  <dimension ref="B1:S16"/>
+  <dimension ref="B1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:L16"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:19">
       <c r="B1" t="s">
@@ -1083,6 +1153,971 @@
       <c r="L16" t="str">
         <f t="shared" si="2"/>
         <v>{202,80}</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19">
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19">
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>D22+1</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" ref="F22:S22" si="3">E22+1</f>
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19">
+      <c r="D23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:Q23" si="4">F23+1</f>
+        <v>30</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="R23" s="3">
+        <f>S23+1</f>
+        <v>17</v>
+      </c>
+      <c r="S23">
+        <f>S22+1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19">
+      <c r="D24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <f>E23+1</f>
+        <v>31</v>
+      </c>
+      <c r="F24" s="4">
+        <f>E24+1</f>
+        <v>32</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:S24" si="5">F24+1</f>
+        <v>33</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="D25" s="5">
+        <f t="shared" ref="D25:Q25" si="6">E25+1</f>
+        <v>61</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="N25" s="5">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="P25" s="5">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="R25" s="5">
+        <f>S25+1</f>
+        <v>47</v>
+      </c>
+      <c r="S25">
+        <f>S24+1</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="D26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <f>D25+1</f>
+        <v>62</v>
+      </c>
+      <c r="H26" s="6">
+        <f>G26+1</f>
+        <v>63</v>
+      </c>
+      <c r="I26">
+        <f>H26+1</f>
+        <v>64</v>
+      </c>
+      <c r="J26" s="6">
+        <f>I26+1</f>
+        <v>65</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="6">
+        <f>J26+1</f>
+        <v>66</v>
+      </c>
+      <c r="M26">
+        <f>L26+1</f>
+        <v>67</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" ref="N26:P26" si="7">M26+1</f>
+        <v>68</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="P26" s="6">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19">
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19">
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f>D30+1</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" ref="F30:S30" si="8">E30+1</f>
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="K30" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <f>J30+1</f>
+        <v>7</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19">
+      <c r="D31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:Q31" si="9">F31+1</f>
+        <v>27</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="K31">
+        <f>M31+1</f>
+        <v>21</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="R31" s="3">
+        <f>S31+1</f>
+        <v>15</v>
+      </c>
+      <c r="S31">
+        <f>S30+1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="D32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <f>E31+1</f>
+        <v>28</v>
+      </c>
+      <c r="F32" s="4">
+        <f>E32+1</f>
+        <v>29</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:S32" si="10">F32+1</f>
+        <v>30</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <f>K32+1</f>
+        <v>35</v>
+      </c>
+      <c r="N32" s="4">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+      <c r="P32" s="4">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="R32" s="4">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="10"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19">
+      <c r="D33" s="5">
+        <f t="shared" ref="D33:Q33" si="11">E33+1</f>
+        <v>55</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="11"/>
+        <v>54</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="11"/>
+        <v>52</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="11"/>
+        <v>51</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="J33" s="5">
+        <f>M33+1</f>
+        <v>49</v>
+      </c>
+      <c r="K33" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="11"/>
+        <v>48</v>
+      </c>
+      <c r="N33" s="5">
+        <f t="shared" si="11"/>
+        <v>47</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="11"/>
+        <v>46</v>
+      </c>
+      <c r="P33" s="5">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="11"/>
+        <v>44</v>
+      </c>
+      <c r="R33" s="5">
+        <f>S33+1</f>
+        <v>43</v>
+      </c>
+      <c r="S33">
+        <f>S32+1</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="3:19">
+      <c r="D34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <f>D33+1</f>
+        <v>56</v>
+      </c>
+      <c r="H34" s="6">
+        <f>G34+1</f>
+        <v>57</v>
+      </c>
+      <c r="I34">
+        <f>H34+1</f>
+        <v>58</v>
+      </c>
+      <c r="J34" s="6">
+        <f>I34+1</f>
+        <v>59</v>
+      </c>
+      <c r="K34" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <f>J34+1</f>
+        <v>60</v>
+      </c>
+      <c r="N34" s="6">
+        <f t="shared" ref="N34:P34" si="12">M34+1</f>
+        <v>61</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="P34" s="6">
+        <f t="shared" si="12"/>
+        <v>63</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>2</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:19">
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:19">
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f>D38+1</f>
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" ref="F38:S38" si="13">E38+1</f>
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="K38" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <f>J38+1</f>
+        <v>7</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="3:19">
+      <c r="D39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:Q39" si="14">F39+1</f>
+        <v>27</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="14"/>
+        <v>23</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="K39">
+        <f>M39+1</f>
+        <v>21</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="N39" s="3">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="R39" s="3">
+        <f>S39+1</f>
+        <v>15</v>
+      </c>
+      <c r="S39">
+        <f>S38+1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="3:19">
+      <c r="D40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <f>E39+1</f>
+        <v>28</v>
+      </c>
+      <c r="F40" s="4">
+        <f>E40+1</f>
+        <v>29</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ref="G40:S40" si="15">F40+1</f>
+        <v>30</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="15"/>
+        <v>31</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="15"/>
+        <v>32</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="15"/>
+        <v>33</v>
+      </c>
+      <c r="K40" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M40" t="s">
+        <v>2</v>
+      </c>
+      <c r="N40" s="4">
+        <f>J40+1</f>
+        <v>34</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="P40" s="4">
+        <f t="shared" si="15"/>
+        <v>36</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="15"/>
+        <v>37</v>
+      </c>
+      <c r="R40" s="4">
+        <f t="shared" si="15"/>
+        <v>38</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="15"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="3:19">
+      <c r="D41" s="5">
+        <f t="shared" ref="D41:Q41" si="16">E41+1</f>
+        <v>53</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="16"/>
+        <v>52</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="16"/>
+        <v>51</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="16"/>
+        <v>48</v>
+      </c>
+      <c r="J41" s="5">
+        <f>M41+1</f>
+        <v>47</v>
+      </c>
+      <c r="K41" t="s">
+        <v>2</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="16"/>
+        <v>46</v>
+      </c>
+      <c r="N41" s="5">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="16"/>
+        <v>44</v>
+      </c>
+      <c r="P41" s="5">
+        <f t="shared" si="16"/>
+        <v>43</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="16"/>
+        <v>42</v>
+      </c>
+      <c r="R41" s="5">
+        <f>S41+1</f>
+        <v>41</v>
+      </c>
+      <c r="S41">
+        <f>S40+1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="3:19">
+      <c r="D42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <f>D41+1</f>
+        <v>54</v>
+      </c>
+      <c r="H42" s="6">
+        <f>G42+1</f>
+        <v>55</v>
+      </c>
+      <c r="I42">
+        <f>H42+1</f>
+        <v>56</v>
+      </c>
+      <c r="J42" s="6">
+        <f>I42+1</f>
+        <v>57</v>
+      </c>
+      <c r="K42" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42" s="6">
+        <f>J42+1</f>
+        <v>58</v>
+      </c>
+      <c r="M42">
+        <f>L42+1</f>
+        <v>59</v>
+      </c>
+      <c r="N42" s="6">
+        <f t="shared" ref="N42:P42" si="17">M42+1</f>
+        <v>60</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="17"/>
+        <v>61</v>
+      </c>
+      <c r="P42" s="6">
+        <f t="shared" si="17"/>
+        <v>62</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>2</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S42" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
